--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,6 +407,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="C1" t="n">
+        <v>5244.444444444444</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -417,12 +425,28 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>1662.698412698413</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3481.746031746031</v>
       </c>
       <c r="B3" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7256.349206349206</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>CK1_1_0002.jpg</t>
         </is>

--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,6 +415,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="E1" t="n">
+        <v>3160.752688172043</v>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -433,6 +441,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="E2" t="n">
+        <v>4095.698924731183</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -451,6 +467,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="E3" t="n">
+        <v>2966.666666666667</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -461,6 +485,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>5332.79569892473</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -471,12 +503,758 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>6696.236559139785</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4826.984126984126</v>
       </c>
       <c r="B6" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2951.612903225806</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="n">
+        <v>1056.989247311828</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="n">
+        <v>2756.989247311828</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="n">
+        <v>2999.462365591398</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="n">
+        <v>2545.698924731183</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="n">
+        <v>2898.924731182795</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="n">
+        <v>4456.989247311828</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="n">
+        <v>5567.204301075269</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="n">
+        <v>5627.419354838709</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="n">
+        <v>5963.440860215053</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="n">
+        <v>7563.978494623655</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="n">
+        <v>2869.354838709677</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="n">
+        <v>961.2903225806451</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="n">
+        <v>756.989247311828</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="n">
+        <v>4515.591397849462</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="n">
+        <v>7204.838709677419</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="n">
+        <v>1849.462365591398</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="n">
+        <v>1503.763440860215</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="n">
+        <v>3427.956989247311</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="n">
+        <v>3095.16129032258</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="n">
+        <v>5300</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="n">
+        <v>676.8817204301075</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="n">
+        <v>6440.860215053763</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="n">
+        <v>2968.279569892473</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="n">
+        <v>2951.612903225806</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="n">
+        <v>1397.311827956989</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="n">
+        <v>1291.935483870968</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="n">
+        <v>1815.591397849462</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="n">
+        <v>5666.129032258064</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="n">
+        <v>4161.290322580645</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="n">
+        <v>1075.806451612903</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="n">
+        <v>4259.677419354838</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="n">
+        <v>3373.655913978494</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="n">
+        <v>1106.989247311828</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="n">
+        <v>5834.408602150537</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="n">
+        <v>766.6666666666666</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="n">
+        <v>878.4946236559139</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="n">
+        <v>3036.021505376344</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="n">
+        <v>3701.075268817204</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="n">
+        <v>1276.881720430107</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="n">
+        <v>559.6774193548387</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="n">
+        <v>1522.043010752688</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="n">
+        <v>2072.58064516129</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="n">
+        <v>326.8817204301075</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="n">
+        <v>7229.569892473118</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="n">
+        <v>6773.118279569892</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="n">
+        <v>7483.333333333333</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="n">
+        <v>2394.086021505376</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="n">
+        <v>2878.494623655914</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="n">
+        <v>870.4301075268817</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="n">
+        <v>2955.376344086021</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="n">
+        <v>4462.365591397849</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="n">
+        <v>8041.397849462365</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="n">
+        <v>3026.344086021505</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="n">
+        <v>4396.236559139785</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="n">
+        <v>3496.236559139785</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="n">
+        <v>3904.838709677419</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="n">
+        <v>2529.569892473118</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="n">
+        <v>3375.268817204301</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="n">
+        <v>2995.16129032258</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="n">
+        <v>3611.827956989247</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="n">
+        <v>5065.05376344086</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="n">
+        <v>3325.268817204301</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="n">
+        <v>3316.666666666667</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="n">
+        <v>2269.354838709677</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="n">
+        <v>2904.838709677419</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="n">
+        <v>3254.838709677419</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="n">
+        <v>1030.10752688172</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="n">
+        <v>4088.709677419355</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="n">
+        <v>7593.010752688171</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="n">
+        <v>1999.462365591398</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="n">
+        <v>3801.612903225806</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="n">
+        <v>2154.838709677419</v>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>CK1_1_0002.jpg</t>
         </is>

--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,6 +423,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G1" t="n">
+        <v>7823.809523809523</v>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I1" t="n">
+        <v>7006.349206349206</v>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -449,6 +465,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>6130.952380952381</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>2752.380952380952</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -475,6 +507,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>4941.269841269841</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>5573.809523809524</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -493,6 +541,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>9080.95238095238</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2096.825396825397</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -511,6 +575,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>4726.190476190476</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>8983.333333333332</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -529,6 +609,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>7541.269841269841</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1853.968253968254</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="E7" t="n">
@@ -539,6 +635,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>2753.174603174603</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5729.365079365079</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="n">
@@ -549,6 +661,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>8083.333333333333</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>3842.063492063492</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="E9" t="n">
@@ -559,6 +687,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>1755.555555555555</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>3262.698412698413</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="E10" t="n">
@@ -569,6 +713,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>3841.269841269841</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>3944.444444444444</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="E11" t="n">
@@ -579,6 +739,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>5775.396825396825</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1387.301587301587</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="E12" t="n">
@@ -589,6 +765,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>4560.31746031746</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>8558.730158730159</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="E13" t="n">
@@ -599,6 +791,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>4311.111111111111</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>4406.349206349206</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="E14" t="n">
@@ -609,6 +817,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>1818.253968253968</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>2640.47619047619</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="E15" t="n">
@@ -619,6 +843,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>450.7936507936508</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>2587.301587301587</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="E16" t="n">
@@ -629,6 +869,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>7045.238095238095</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>12130.15873015873</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="E17" t="n">
@@ -639,6 +895,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>1934.126984126984</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>6626.984126984126</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="E18" t="n">
@@ -649,6 +921,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>1458.730158730159</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>2426.984126984127</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="E19" t="n">
@@ -659,6 +947,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G19" t="n">
+        <v>3230.15873015873</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>10003.1746031746</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="E20" t="n">
@@ -669,6 +973,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G20" t="n">
+        <v>1211.111111111111</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>3961.111111111111</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="E21" t="n">
@@ -679,6 +999,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>2453.174603174603</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>7840.47619047619</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="E22" t="n">
@@ -689,6 +1025,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>7349.206349206349</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>7880.952380952381</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="E23" t="n">
@@ -699,6 +1051,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G23" t="n">
+        <v>5274.603174603174</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>5273.015873015873</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="E24" t="n">
@@ -709,6 +1077,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>4231.746031746032</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>2699.206349206349</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="E25" t="n">
@@ -719,6 +1103,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>5347.619047619048</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>4091.269841269841</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="E26" t="n">
@@ -729,6 +1129,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>6252.380952380952</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>9982.539682539682</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="E27" t="n">
@@ -739,6 +1155,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G27" t="n">
+        <v>1744.444444444444</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>2623.809523809524</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="E28" t="n">
@@ -749,6 +1181,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>3911.904761904761</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="E29" t="n">
@@ -759,6 +1207,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>5404.761904761905</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="E30" t="n">
@@ -769,6 +1225,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G30" t="n">
+        <v>6228.571428571428</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="E31" t="n">
@@ -779,6 +1243,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>2651.587301587301</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="E32" t="n">
@@ -789,6 +1261,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G32" t="n">
+        <v>8961.111111111111</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="E33" t="n">
@@ -799,6 +1279,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>5753.968253968254</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="E34" t="n">
@@ -809,6 +1297,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>6900.79365079365</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="E35" t="n">
@@ -819,6 +1315,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>15827.77777777778</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="E36" t="n">
@@ -829,6 +1333,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G36" t="n">
+        <v>7828.571428571428</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="E37" t="n">
@@ -839,6 +1351,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="G37" t="n">
+        <v>4226.190476190476</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="E38" t="n">
@@ -847,6 +1367,14 @@
       <c r="F38" t="inlineStr">
         <is>
           <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>3035.714285714285</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
         </is>
       </c>
     </row>

--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,62 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="K1" t="n">
+        <v>12974.60317460317</v>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="M1" t="n">
+        <v>1290.47619047619</v>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="O1" t="n">
+        <v>8124.603174603174</v>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="Q1" t="n">
+        <v>16143.65079365079</v>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S1" t="n">
+        <v>1034.920634920635</v>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="U1" t="n">
+        <v>8226.190476190475</v>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
+      <c r="W1" t="n">
+        <v>4141.269841269841</v>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -481,6 +537,38 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>929.3650793650793</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0012.jpg</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>3310.31746031746</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>5288.888888888889</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>6569.841269841269</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -523,6 +611,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>3943.650793650793</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>5149.206349206349</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>5138.095238095238</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -557,6 +669,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>4169.047619047619</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>6040.47619047619</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>5316.666666666666</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -591,6 +727,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>2944.444444444444</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>2973.809523809524</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>8216.666666666666</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -625,6 +785,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>7067.460317460317</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>7641.269841269841</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>3866.666666666667</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="E7" t="n">
@@ -651,6 +835,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>4610.31746031746</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>4860.31746031746</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>7185.714285714285</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="n">
@@ -677,6 +885,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>2933.333333333333</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>5451.587301587301</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>7470.63492063492</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="E9" t="n">
@@ -703,6 +935,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>5918.253968253968</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>8925.396825396825</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v>1750</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="E10" t="n">
@@ -729,6 +985,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>2248.412698412698</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>14431.74603174603</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v>4158.730158730158</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="E11" t="n">
@@ -755,6 +1035,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>7923.015873015873</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>13357.93650793651</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
+        <v>5001.587301587301</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="E12" t="n">
@@ -781,6 +1085,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>7842.063492063492</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>18054.7619047619</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
+        <v>4379.36507936508</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="E13" t="n">
@@ -807,6 +1135,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>8415.873015873016</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>7863.492063492063</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>4183.333333333333</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="E14" t="n">
@@ -833,6 +1185,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>2719.84126984127</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>6634.920634920634</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>2888.888888888889</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="E15" t="n">
@@ -859,6 +1235,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>3612.698412698413</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>16443.65079365079</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>4601.587301587301</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="E16" t="n">
@@ -885,6 +1285,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>5277.777777777777</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>4271.428571428572</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>7130.952380952381</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="E17" t="n">
@@ -911,6 +1335,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>4069.047619047619</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>7922.222222222222</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v>3975.396825396825</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="E18" t="n">
@@ -937,6 +1385,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>2719.84126984127</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>8099.206349206349</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>12307.14285714286</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="E19" t="n">
@@ -963,6 +1435,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>11930.95238095238</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>5346.031746031746</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>2531.746031746032</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="E20" t="n">
@@ -989,6 +1485,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>6613.492063492063</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>1707.142857142857</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>3807.142857142857</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="E21" t="n">
@@ -1015,6 +1535,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>2693.650793650793</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>12568.25396825397</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>7168.253968253968</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="E22" t="n">
@@ -1041,6 +1585,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>2108.730158730159</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>6311.904761904761</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>7091.269841269841</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="E23" t="n">
@@ -1067,6 +1635,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>10019.84126984127</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>6461.904761904761</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>8177.777777777777</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="E24" t="n">
@@ -1093,6 +1685,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>3608.730158730159</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>1772.222222222222</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>5373.015873015873</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="E25" t="n">
@@ -1119,6 +1735,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>9918.253968253968</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>3935.714285714285</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>8712.698412698412</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="E26" t="n">
@@ -1145,6 +1785,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>4476.190476190476</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>6107.142857142857</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>909.5238095238095</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="E27" t="n">
@@ -1171,6 +1835,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>4076.190476190476</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>8904.761904761905</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W27" t="n">
+        <v>8197.619047619048</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="E28" t="n">
@@ -1197,6 +1885,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>2533.333333333333</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>7717.460317460317</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W28" t="n">
+        <v>3665.079365079365</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="E29" t="n">
@@ -1215,6 +1927,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>7127.777777777777</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>17072.22222222222</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W29" t="n">
+        <v>1981.746031746032</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="E30" t="n">
@@ -1233,6 +1969,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>3487.301587301587</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>15234.12698412698</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>1445.238095238095</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="E31" t="n">
@@ -1251,6 +2011,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>6548.412698412698</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>14162.69841269841</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W31" t="n">
+        <v>7534.920634920634</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="E32" t="n">
@@ -1269,6 +2053,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>7227.777777777777</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>1176.984126984127</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W32" t="n">
+        <v>8411.904761904761</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="E33" t="n">
@@ -1287,6 +2095,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>3080.15873015873</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>3011.111111111111</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
+        <v>12134.12698412698</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="E34" t="n">
@@ -1305,6 +2137,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>4114.285714285714</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>3455.555555555555</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>5383.333333333333</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="E35" t="n">
@@ -1323,6 +2179,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>1001.587301587302</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>14324.60317460317</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>5028.571428571428</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="E36" t="n">
@@ -1341,6 +2221,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>6353.968253968254</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
+        <v>1379.365079365079</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>5415.873015873016</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="E37" t="n">
@@ -1359,6 +2263,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>6873.015873015873</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
+        <v>8179.365079365079</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W37" t="n">
+        <v>4529.36507936508</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="E38" t="n">
@@ -1377,6 +2305,30 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>4780.15873015873</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
+        <v>11720.63492063492</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W38" t="n">
+        <v>5939.68253968254</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="E39" t="n">
@@ -1387,6 +2339,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>3204.761904761905</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
+        <v>5464.285714285714</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W39" t="n">
+        <v>7924.603174603174</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="E40" t="n">
@@ -1397,6 +2373,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>4736.507936507936</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
+        <v>9470.63492063492</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W40" t="n">
+        <v>5684.920634920634</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="E41" t="n">
@@ -1407,6 +2407,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>8258.730158730159</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
+        <v>4291.269841269841</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W41" t="n">
+        <v>6191.269841269841</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="E42" t="n">
@@ -1417,6 +2441,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>5910.31746031746</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>8436.507936507936</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W42" t="n">
+        <v>4869.841269841269</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="E43" t="n">
@@ -1427,6 +2475,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>8396.825396825396</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
+        <v>5277.777777777777</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>11004.7619047619</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="E44" t="n">
@@ -1437,6 +2509,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>1281.746031746032</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>20223.01587301587</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W44" t="n">
+        <v>4408.730158730158</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="E45" t="n">
@@ -1447,6 +2543,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>3803.174603174603</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
+        <v>2257.936507936508</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W45" t="n">
+        <v>4092.063492063492</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="E46" t="n">
@@ -1457,6 +2577,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>5840.47619047619</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
+        <v>13828.57142857143</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W46" t="n">
+        <v>6703.968253968254</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="E47" t="n">
@@ -1467,6 +2611,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>7578.571428571428</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>10344.44444444444</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W47" t="n">
+        <v>3742.063492063492</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="E48" t="n">
@@ -1477,6 +2645,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>5010.31746031746</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>6281.746031746032</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W48" t="n">
+        <v>3385.714285714285</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="E49" t="n">
@@ -1487,6 +2679,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>8007.936507936507</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
+        <v>5580.952380952381</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W49" t="n">
+        <v>1964.285714285714</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="E50" t="n">
@@ -1497,6 +2713,30 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>3692.063492063492</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
+        <v>2676.190476190476</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>CK1_1_0004.jpg</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>11281.74603174603</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="E51" t="n">
@@ -1507,6 +2747,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>4457.936507936508</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="W51" t="n">
+        <v>6196.031746031746</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="E52" t="n">
@@ -1517,6 +2773,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>5142.857142857142</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="W52" t="n">
+        <v>6747.619047619047</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="E53" t="n">
@@ -1527,6 +2799,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>5100.79365079365</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="W53" t="n">
+        <v>6059.523809523809</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="E54" t="n">
@@ -1537,6 +2825,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>3206.349206349206</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="W54" t="n">
+        <v>6919.841269841269</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="E55" t="n">
@@ -1547,6 +2851,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>1535.714285714286</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="W55" t="n">
+        <v>4157.142857142857</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="E56" t="n">
@@ -1557,6 +2877,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>4565.079365079365</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="W56" t="n">
+        <v>6423.809523809524</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="E57" t="n">
@@ -1567,6 +2903,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>3581.746031746031</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="W57" t="n">
+        <v>5606.349206349206</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="E58" t="n">
@@ -1577,6 +2929,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>4384.126984126984</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="W58" t="n">
+        <v>8192.063492063491</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="E59" t="n">
@@ -1587,6 +2955,22 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>6914.285714285714</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="W59" t="n">
+        <v>10378.57142857143</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>CK1_1_0005.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="E60" t="n">
@@ -1597,6 +2981,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>4119.047619047619</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="E61" t="n">
@@ -1607,6 +2999,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>7615.873015873016</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="E62" t="n">
@@ -1617,6 +3017,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>6737.301587301587</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="E63" t="n">
@@ -1627,6 +3035,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>6050</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="E64" t="n">
@@ -1637,6 +3053,14 @@
           <t>CK1_1_0002.jpg</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>5831.746031746032</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="E65" t="n">
@@ -1645,6 +3069,14 @@
       <c r="F65" t="inlineStr">
         <is>
           <t>CK1_1_0002.jpg</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>4625.396825396825</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>CK1_1_0003.jpg</t>
         </is>
       </c>
     </row>

--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X79"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y1" t="n">
+        <v>1964.158961083136</v>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -569,6 +577,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y2" t="n">
+        <v>2943.795457842262</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -635,6 +651,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y3" t="n">
+        <v>2883.5351912087</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -693,6 +717,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y4" t="n">
+        <v>4353.397100311129</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -751,6 +783,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y5" t="n">
+        <v>4802.906116280404</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -809,6 +849,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y6" t="n">
+        <v>3138.419832510118</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="E7" t="n">
@@ -859,6 +907,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y7" t="n">
+        <v>1920.999580926665</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="n">
@@ -909,6 +965,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y8" t="n">
+        <v>3866.428999677748</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="E9" t="n">
@@ -959,6 +1023,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y9" t="n">
+        <v>5668.536703192251</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="E10" t="n">
@@ -1009,6 +1081,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y10" t="n">
+        <v>5329.776285360333</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="E11" t="n">
@@ -1059,6 +1139,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y11" t="n">
+        <v>5836.288256253248</v>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="E12" t="n">
@@ -1109,6 +1197,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y12" t="n">
+        <v>2385.980827518071</v>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="E13" t="n">
@@ -1159,6 +1255,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y13" t="n">
+        <v>4566.751017311039</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="E14" t="n">
@@ -1209,6 +1313,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y14" t="n">
+        <v>6475.535679325496</v>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="E15" t="n">
@@ -1259,6 +1371,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y15" t="n">
+        <v>3403.076408941304</v>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="E16" t="n">
@@ -1309,6 +1429,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y16" t="n">
+        <v>2068.392935800649</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="E17" t="n">
@@ -1359,6 +1487,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y17" t="n">
+        <v>5036.618231467328</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="E18" t="n">
@@ -1409,6 +1545,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y18" t="n">
+        <v>4643.297842494212</v>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="E19" t="n">
@@ -1459,6 +1603,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y19" t="n">
+        <v>2390.866795082954</v>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="E20" t="n">
@@ -1509,6 +1661,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y20" t="n">
+        <v>2340.378463579159</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="E21" t="n">
@@ -1559,6 +1719,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y21" t="n">
+        <v>771.9828752515807</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="E22" t="n">
@@ -1609,6 +1777,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y22" t="n">
+        <v>4769.518671253701</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="E23" t="n">
@@ -1659,6 +1835,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y23" t="n">
+        <v>5044.761510742133</v>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="E24" t="n">
@@ -1709,6 +1893,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y24" t="n">
+        <v>4531.734916429374</v>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="E25" t="n">
@@ -1759,6 +1951,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y25" t="n">
+        <v>3973.105958177703</v>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="E26" t="n">
@@ -1809,6 +2009,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y26" t="n">
+        <v>3069.20195867427</v>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="E27" t="n">
@@ -1859,6 +2067,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y27" t="n">
+        <v>2179.141533938006</v>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="E28" t="n">
@@ -1909,6 +2125,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y28" t="n">
+        <v>9151.41724902665</v>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="E29" t="n">
@@ -1951,6 +2175,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y29" t="n">
+        <v>2793.144791258356</v>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="E30" t="n">
@@ -1993,6 +2225,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y30" t="n">
+        <v>6700.290187310133</v>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="E31" t="n">
@@ -2035,6 +2275,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y31" t="n">
+        <v>4950.299471154387</v>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="E32" t="n">
@@ -2077,6 +2325,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y32" t="n">
+        <v>5850.131831020418</v>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="E33" t="n">
@@ -2119,6 +2375,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y33" t="n">
+        <v>4305.351752589776</v>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="E34" t="n">
@@ -2161,6 +2425,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y34" t="n">
+        <v>4719.030339749906</v>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="E35" t="n">
@@ -2203,6 +2475,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y35" t="n">
+        <v>5460.068753757224</v>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="E36" t="n">
@@ -2245,6 +2525,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y36" t="n">
+        <v>4073.268293257813</v>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="E37" t="n">
@@ -2287,6 +2575,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y37" t="n">
+        <v>5988.567578692115</v>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="E38" t="n">
@@ -2329,6 +2625,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y38" t="n">
+        <v>7681.55533992422</v>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="E39" t="n">
@@ -2363,6 +2667,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y39" t="n">
+        <v>4530.920588501894</v>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="E40" t="n">
@@ -2397,6 +2709,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y40" t="n">
+        <v>5793.128876096777</v>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="E41" t="n">
@@ -2431,6 +2751,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y41" t="n">
+        <v>4314.309359792062</v>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="E42" t="n">
@@ -2465,6 +2793,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y42" t="n">
+        <v>2686.467832758402</v>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="E43" t="n">
@@ -2499,6 +2835,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y43" t="n">
+        <v>4744.274505501803</v>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="E44" t="n">
@@ -2533,6 +2877,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y44" t="n">
+        <v>4430.758253421784</v>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="E45" t="n">
@@ -2567,6 +2919,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y45" t="n">
+        <v>4328.967262486712</v>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="E46" t="n">
@@ -2601,6 +2961,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y46" t="n">
+        <v>3973.920286105184</v>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="E47" t="n">
@@ -2635,6 +3003,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y47" t="n">
+        <v>4539.87819570418</v>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="E48" t="n">
@@ -2669,6 +3045,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y48" t="n">
+        <v>3879.458246517437</v>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="E49" t="n">
@@ -2703,6 +3087,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y49" t="n">
+        <v>4760.561064051414</v>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="E50" t="n">
@@ -2737,6 +3129,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y50" t="n">
+        <v>5468.21203303203</v>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="E51" t="n">
@@ -2763,6 +3163,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y51" t="n">
+        <v>3793.953814131977</v>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="E52" t="n">
@@ -2789,6 +3197,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y52" t="n">
+        <v>3806.983060971666</v>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="E53" t="n">
@@ -2815,6 +3231,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y53" t="n">
+        <v>5227.985294425262</v>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="E54" t="n">
@@ -2841,6 +3265,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y54" t="n">
+        <v>5942.150886825722</v>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="E55" t="n">
@@ -2867,6 +3299,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y55" t="n">
+        <v>2725.555573277469</v>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="E56" t="n">
@@ -2893,6 +3333,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y56" t="n">
+        <v>4561.050721818675</v>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="E57" t="n">
@@ -2919,6 +3367,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y57" t="n">
+        <v>6193.778216417219</v>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="E58" t="n">
@@ -2945,6 +3401,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y58" t="n">
+        <v>3042.329137067411</v>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="E59" t="n">
@@ -2971,6 +3435,14 @@
           <t>CK1_1_0005.jpg</t>
         </is>
       </c>
+      <c r="Y59" t="n">
+        <v>8407.121523309408</v>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="E60" t="n">
@@ -2989,6 +3461,14 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Y60" t="n">
+        <v>3635.159868273266</v>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="E61" t="n">
@@ -3007,6 +3487,14 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Y61" t="n">
+        <v>6175.048674085165</v>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="E62" t="n">
@@ -3025,6 +3513,14 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Y62" t="n">
+        <v>4135.157215746336</v>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="E63" t="n">
@@ -3043,6 +3539,14 @@
           <t>CK1_1_0003.jpg</t>
         </is>
       </c>
+      <c r="Y63" t="n">
+        <v>3953.562087918169</v>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="E64" t="n">
@@ -3059,6 +3563,14 @@
       <c r="R64" t="inlineStr">
         <is>
           <t>CK1_1_0003.jpg</t>
+        </is>
+      </c>
+      <c r="Y64" t="n">
+        <v>4671.799319956032</v>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>S-CTL4-2_0013.jpg</t>
         </is>
       </c>
     </row>

--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z79"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,14 @@
           <t>S-CTL4-2_0013.jpg</t>
         </is>
       </c>
+      <c r="AA1" t="n">
+        <v>3820.190798212777</v>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>CK1_1_0006.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -583,6 +591,14 @@
       <c r="Z2" t="inlineStr">
         <is>
           <t>S-CTL4-2_0013.jpg</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>2656.382079459003</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>CK1_1_0006.jpg</t>
         </is>
       </c>
     </row>
